--- a/WestPoint/Combat Modelling/7HW - Lanchester Equation.xlsx
+++ b/WestPoint/Combat Modelling/7HW - Lanchester Equation.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://usarmywestpoint-my.sharepoint.com/personal/mayara_mendonca_westpoint_edu/Documents/COMBAT MODELLING/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://usarmywestpoint-my.sharepoint.com/personal/mayara_mendonca_westpoint_edu/Documents/Documents/GitHub/Comp-IME-23/WestPoint/Combat Modelling/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="35" documentId="8_{5589D2B4-8A40-4EF4-BA52-71196E9829CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{70F2DAD7-AD16-43EA-A59F-177B6DADE49C}"/>
+  <xr:revisionPtr revIDLastSave="36" documentId="8_{5589D2B4-8A40-4EF4-BA52-71196E9829CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CDB95A48-B1C8-4137-BA73-B268A25ACA5C}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="3" xr2:uid="{7AEE07F6-93C3-4203-97C4-D362EA2B7CE1}"/>
   </bookViews>
@@ -199,10 +199,10 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1332,7 +1332,7 @@
                 <c:order val="2"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'8.3'!$I$1</c15:sqref>
@@ -1373,7 +1373,7 @@
                 </c:marker>
                 <c:xVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'8.3'!$F$2:$F$49</c15:sqref>
@@ -1532,7 +1532,7 @@
                 </c:xVal>
                 <c:yVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'8.3'!$I$2:$I$49</c15:sqref>
@@ -1690,7 +1690,7 @@
                   </c:numRef>
                 </c:yVal>
                 <c:smooth val="1"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000002-FE73-47B9-98FF-2510292EB7CA}"/>
                   </c:ext>
@@ -2820,7 +2820,7 @@
                 <c:order val="2"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>CLASS1!$I$1</c15:sqref>
@@ -2861,7 +2861,7 @@
                 </c:marker>
                 <c:xVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>CLASS1!$F$2:$F$38</c15:sqref>
@@ -2987,7 +2987,7 @@
                 </c:xVal>
                 <c:yVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>CLASS1!$I$2:$I$38</c15:sqref>
@@ -3112,7 +3112,7 @@
                   </c:numRef>
                 </c:yVal>
                 <c:smooth val="1"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000002-F067-4D18-981F-4898407AF0AE}"/>
                   </c:ext>
@@ -5056,12 +5056,12 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
       <c r="F9">
         <f t="shared" si="3"/>
         <v>7</v>
@@ -5084,10 +5084,10 @@
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
+      <c r="A10" s="5"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
       <c r="F10">
         <f t="shared" si="3"/>
         <v>8</v>
@@ -5110,10 +5110,10 @@
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
+      <c r="A11" s="5"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
       <c r="F11">
         <f t="shared" si="3"/>
         <v>9</v>
@@ -5136,10 +5136,10 @@
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
+      <c r="A12" s="5"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
       <c r="F12">
         <f t="shared" si="3"/>
         <v>10</v>
@@ -5980,12 +5980,12 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
       <c r="F9">
         <f t="shared" si="3"/>
         <v>0.35</v>
@@ -6008,10 +6008,10 @@
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
+      <c r="A10" s="5"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
       <c r="F10">
         <f t="shared" si="3"/>
         <v>0.39999999999999997</v>
@@ -6034,10 +6034,10 @@
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
+      <c r="A11" s="5"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
       <c r="F11">
         <f t="shared" si="3"/>
         <v>0.44999999999999996</v>
@@ -6060,10 +6060,10 @@
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
+      <c r="A12" s="5"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
       <c r="F12">
         <f t="shared" si="3"/>
         <v>0.49999999999999994</v>
@@ -6904,10 +6904,10 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
       <c r="F9">
         <f t="shared" si="3"/>
         <v>0.7</v>
@@ -6930,10 +6930,10 @@
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A10" s="5"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
       <c r="F10">
         <f t="shared" si="3"/>
         <v>0.79999999999999993</v>
@@ -6956,10 +6956,10 @@
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A11" s="5"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
       <c r="F11">
         <f t="shared" si="3"/>
         <v>0.89999999999999991</v>
@@ -6982,10 +6982,10 @@
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A12" s="5"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
       <c r="F12">
         <f t="shared" si="3"/>
         <v>0.99999999999999989</v>
@@ -7833,7 +7833,7 @@
   <dimension ref="A1:K38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="92" workbookViewId="0">
-      <selection activeCell="T4" sqref="T4"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8066,12 +8066,12 @@
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
       <c r="F9">
         <f t="shared" si="3"/>
         <v>7.0000000000000007E-2</v>
@@ -8094,10 +8094,10 @@
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
+      <c r="A10" s="5"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
       <c r="F10">
         <f t="shared" si="3"/>
         <v>0.08</v>
@@ -8120,10 +8120,10 @@
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
+      <c r="A11" s="5"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
       <c r="F11">
         <f t="shared" si="3"/>
         <v>0.09</v>
@@ -8146,10 +8146,10 @@
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
+      <c r="A12" s="5"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
       <c r="F12">
         <f t="shared" si="3"/>
         <v>9.9999999999999992E-2</v>
